--- a/reports/2025-05-17/current_day_report_2025-05-17.xlsx
+++ b/reports/2025-05-17/current_day_report_2025-05-17.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:37 AM</t>
+          <t>02:53 AM</t>
         </is>
       </c>
     </row>
